--- a/DateBase/orders/Dang Nguyen_2025-11-22.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-22.xlsx
@@ -523,6 +523,9 @@
       <c r="C11" t="str">
         <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
       </c>
+      <c r="F11" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -584,7 +587,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0107814.53040402050</v>
+        <v>0107814.530404020510</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-22.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-22.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -527,9 +527,95 @@
         <v>10</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>3</v>
+      </c>
+      <c r="C12" t="str">
+        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F12" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F13" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F14" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F15" t="str">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>274_仙子之吻_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F16" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>577_腊梅白_wax white_undefined_1bunch</v>
+      </c>
+      <c r="F17" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>578_腊梅粉_wax pink_undefined_1bunch</v>
+      </c>
+      <c r="F18" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>4</v>
+      </c>
+      <c r="C19" t="str">
+        <v>556_马尾松_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F19" t="str">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>5</v>
+      </c>
+      <c r="C20" t="str">
+        <v>572_乒乓菊白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F20" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>734_乒乓菊红_undefined_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -587,7 +673,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0107814.530404020510</v>
+        <v>0107814.5304040205102010103.55101044100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-22.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-22.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -612,10 +612,94 @@
       <c r="C21" t="str">
         <v>734_乒乓菊红_undefined_undefined_1bunch</v>
       </c>
+      <c r="F21" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>794_小菊罗西香槟_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F22" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>6</v>
+      </c>
+      <c r="C23" t="str">
+        <v>522_山归来绿_Smilax china_undefined_1bunch</v>
+      </c>
+      <c r="F23" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>688_山归来橙_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F24" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>462_五针松_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F25" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" xml:space="preserve">
+      <c r="C26" t="str" xml:space="preserve">
+        <v xml:space="preserve">349_千层金绿_Melaleuca bracteata
+（dyed orange）_Melaleuca bracteata F.Muell._1bunch</v>
+      </c>
+      <c r="F26" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
+      </c>
+      <c r="F27" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>403_大飞燕浅蓝色_delphinium light blue_undefined_1bunch</v>
+      </c>
+      <c r="F28" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>389_金合欢_mimosa_undefined_1bunch</v>
+      </c>
+      <c r="F29" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>608_康乃馨笑颜_undefined_undefined_20stems</v>
+      </c>
+      <c r="F30" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>200_粉佳人_Nirvana_Rosa rugosa Thunb._20stems</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -673,7 +757,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0107814.5304040205102010103.55101044100</v>
+        <v>0107814.5304040205102010103.55101044101061010205101010100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-22.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-22.xlsx
@@ -696,6 +696,9 @@
       <c r="C31" t="str">
         <v>200_粉佳人_Nirvana_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F31" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -757,7 +760,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0107814.5304040205102010103.55101044101061010205101010100</v>
+        <v>0107814.5304040205102010103.55101044101061010205101010105</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-22.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-22.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -700,9 +700,89 @@
         <v>5</v>
       </c>
     </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>610_康乃馨黄_yellow_undefined_20stems</v>
+      </c>
+      <c r="F32" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>687_百合黑_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F33" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>558_油画小菊_Helenium_undefined_1bunch</v>
+      </c>
+      <c r="F34" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>7</v>
+      </c>
+      <c r="C35" t="str">
+        <v>83_布拉格_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F35" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>84_堪培拉_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F36" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>85_摩洛哥_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F37" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F38" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+      <c r="F39" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+      <c r="F40" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -760,7 +840,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0107814.5304040205102010103.55101044101061010205101010105</v>
+        <v>0107814.5304040205102010103.55101044101061010205101010105541010251010100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-22.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-22.xlsx
@@ -779,6 +779,9 @@
       <c r="C41" t="str">
         <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
       </c>
+      <c r="F41" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -840,7 +843,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0107814.5304040205102010103.55101044101061010205101010105541010251010100</v>
+        <v>0107814.5304040205102010103.55101044101061010205101010105541010251010101</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-22.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-22.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -780,12 +780,169 @@
         <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
       </c>
       <c r="F41" t="str">
-        <v>1</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+      </c>
+      <c r="F42" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" xml:space="preserve">
+      <c r="C43" t="str" xml:space="preserve">
+        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
+white_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F43" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>794_小菊罗西香槟_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F44" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>603_康乃馨粉钻_darkpink_undefined_20stems</v>
+      </c>
+      <c r="F45" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>612_康乃馨古巴爱情_cuba love_undefined_20stems</v>
+      </c>
+      <c r="F46" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>614_康乃馨绿_green_undefined_20stems</v>
+      </c>
+      <c r="F47" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>611_康乃馨奶油白_cream white_undefined_20stems</v>
+      </c>
+      <c r="F48" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F49" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>590_洋牡丹粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F50" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="str">
+        <v>585_洋牡丹红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F51" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>588_洋牡丹黄_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F52" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>587_洋牡丹橙_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F53" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>8</v>
+      </c>
+      <c r="C54" t="str">
+        <v>44_拉丝粉_Spider Pink_Gerbera L._20stems</v>
+      </c>
+      <c r="F54" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>49_亚丁_Pasta Rosata_Gerbera L._10stems</v>
+      </c>
+      <c r="F55" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>42_拉丝黄_Spider Yellow_Gerbera L._20stems</v>
+      </c>
+      <c r="F56" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>77_珍爱mini_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F57" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>46_拉丝橙_Spider orange_Gerbera L._20stems</v>
+      </c>
+      <c r="F58" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>48_香格里拉_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F59" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" xml:space="preserve">
+      <c r="C60" t="str" xml:space="preserve">
+        <v xml:space="preserve">509_翠珠粉_Didiscus caeruleus
+pink_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F60" t="str">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L60"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -843,7 +1000,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0107814.5304040205102010103.55101044101061010205101010105541010251010101</v>
+        <v>0107814.5304040205102010103.551010441010610102051010101055410102510101010152045555151555551051051010</v>
       </c>
     </row>
   </sheetData>
